--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在有重排好序的数组中找目标值，返回范围。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Search Insert Position</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,6 +167,12 @@
   </si>
   <si>
     <t>Combination Sum II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有重排好序的数组中找目标值，返回范围。
+二分查找变为找最左、最右元素
+参考https://blog.csdn.net/petersmart123/article/details/78075815</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,340 +269,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -638,236 +310,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1194,18 +636,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="41.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="81.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.36328125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="81.36328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1219,7 +661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>21</v>
       </c>
@@ -1230,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>22</v>
       </c>
@@ -1244,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>23</v>
       </c>
@@ -1258,7 +700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>24</v>
       </c>
@@ -1272,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>25</v>
       </c>
@@ -1286,7 +728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>26</v>
       </c>
@@ -1297,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>27</v>
       </c>
@@ -1308,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>28</v>
       </c>
@@ -1322,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>29</v>
       </c>
@@ -1333,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>30</v>
       </c>
@@ -1347,7 +789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>31</v>
       </c>
@@ -1358,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>32</v>
       </c>
@@ -1369,7 +811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>33</v>
       </c>
@@ -1383,7 +825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>34</v>
       </c>
@@ -1391,88 +833,88 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>35</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>40</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"EASY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"HARD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"MEDIUM"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1489,19 +931,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1509,13 +951,13 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"MEDIUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"HARD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"EASY"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="admin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,53 +40,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>K路归并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用递归更容易理解。每次返回head。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=2就是#24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合法的括号对，卡塔兰数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Element</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在旋转过的数组中查找，要求O(logn)复杂度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Generate Parentheses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count and Say</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEDIUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
-    <t>HARD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>K路归并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swap Nodes in Pairs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用递归更容易理解。每次返回head。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Reverse Nodes in k-Group</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>k=2就是#24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>合法的括号对，卡塔兰数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Duplicates from Sorted Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove Element</t>
+    <t>EASY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -96,10 +121,6 @@
   </si>
   <si>
     <t>类似实现Java的String.indexOf()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Divide Two Integers</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -120,14 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Search in Rotated Sorted Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在旋转过的数组中查找，要求O(logn)复杂度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Find First and Last Position of Element in Sorted Array</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,29 +149,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EASY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDIUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Valid Sudoku</t>
-  </si>
-  <si>
-    <t>MEDIUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Sudoku Solver</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count and Say</t>
-  </si>
-  <si>
-    <t>EASY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -173,6 +168,54 @@
     <t>在有重排好序的数组中找目标值，返回范围。
 二分查找变为找最左、最右元素
 参考https://blog.csdn.net/petersmart123/article/details/78075815</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素可重复使用，用回溯法解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有重复元素，每个元素只能用一次，但解中不能有相同组合
+https://leetcode.com/problems/combination-sum/discuss/16502/A-general-approach-to-backtracking-questions-in-Java-(Subsets-Permutations-Combination-Sum-Palindrome-Partitioning)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look-and-say 数列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>HARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从后向前移动，可以减少元素移动的次数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划，遍历数组，记录以该元素结尾的最大子数组和。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -212,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -244,19 +293,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -264,15 +304,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题 3" xfId="1" builtinId="18"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -300,6 +358,126 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -633,334 +811,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="41.36328125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
-    <col min="4" max="4" width="81.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="41.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="81.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>21</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>23</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    </row>
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>26</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>29</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="D40" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>34</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>35</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>37</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>38</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>40</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
+      <c r="D54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="C1 C22:C23 C47:C53 C93:C1048576 C55:C89">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"MEDIUM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"HARD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>"EASY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C44">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"MEDIUM"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"HARD"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"EASY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"MEDIUM"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"HARD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"MEDIUM"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"EASY"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"MEDIUM"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"HARD"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"EASY"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -216,6 +216,56 @@
   </si>
   <si>
     <t>动态规划，遍历数组，记录以该元素结尾的最大子数组和。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotate List</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意是从右开始数，第k个元素为轴。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 记录大写字母的数量，与字符串长度比较
+2. 给定输入可能的范围，判断是否是小写字母的快捷方法是用'Z'去减。
+ASCII表中先出现数字、再大写字母，最后小写字母。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longest Uncommon Subsequence I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>找最长的非公共字串。
+1. 内容相等时，返回-1（找不到）
+2. 长度不等时，返回长的那个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺旋打印矩阵。
+1. 用变量保存当前打印位置，用+/-1控制打印方向。
+2. 按层处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -327,10 +377,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -418,96 +468,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,22 +771,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="41.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="81.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="81.36328125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -840,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -852,7 +812,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -866,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -880,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -894,7 +854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -908,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -919,7 +879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -931,7 +891,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -945,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -957,7 +917,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -971,7 +931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -983,7 +943,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -994,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1008,7 +968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1022,7 +982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1034,7 +994,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1045,7 +1005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1057,7 +1017,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1071,7 +1031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1085,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="56" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1099,7 +1059,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1111,16 +1071,16 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1134,7 +1094,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -1145,7 +1133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -1159,7 +1147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -1168,40 +1156,68 @@
       </c>
       <c r="C101" s="3" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A521" s="7">
+        <v>520</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+      <c r="A522" s="7">
+        <v>521</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1 C22:C23 C47:C53 C93:C1048576 C55:C89">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>"MEDIUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>"HARD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>"EASY"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C44">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"MEDIUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"HARD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"EASY"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"MEDIUM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"HARD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"EASY"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -266,6 +266,32 @@
     <t>螺旋打印矩阵。
 1. 用变量保存当前打印位置，用+/-1控制打印方向。
 2. 按层处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EASY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">斐波那契数列：a(n)= a(n-1) + a(n-2）
+用循环来解。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conbinations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无重复元素的n-组合生成算法。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -377,8 +403,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题 3" xfId="1" builtinId="18"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -773,20 +799,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="41.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="81.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="81.375" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -800,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -812,7 +838,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -826,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -840,7 +866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -854,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -868,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -879,7 +905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -891,7 +917,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -905,7 +931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -917,7 +943,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -931,7 +957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -943,7 +969,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -954,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -968,7 +994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -982,7 +1008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -994,7 +1020,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1005,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1017,7 +1043,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1059,7 +1085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1071,16 +1097,16 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1094,7 +1120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -1108,7 +1134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -1122,7 +1148,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
+        <v>77</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -1133,7 +1187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -1147,7 +1201,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -1158,7 +1212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A521" s="7">
         <v>520</v>
       </c>
@@ -1172,7 +1226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="42" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A522" s="7">
         <v>521</v>
       </c>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -292,6 +292,19 @@
   </si>
   <si>
     <t>无重复元素的n-组合生成算法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permutations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考这个回答，可以用回溯法解决系列问题：
+https://leetcode.com/problems/permutations/discuss/18239/A-general-approach-to-backtracking-questions-in-Java-(Subsets-Permutations-Combination-Sum-Palindrome-Partioning)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -403,8 +416,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题 3" xfId="1" builtinId="18"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -799,20 +812,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="41.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="81.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="81.36328125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -826,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -838,7 +851,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -852,7 +865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -866,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -880,7 +893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -894,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -905,7 +918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -917,7 +930,7 @@
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -931,7 +944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -943,7 +956,7 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -957,7 +970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -969,7 +982,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -980,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -1020,7 +1033,7 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1031,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1043,7 +1056,7 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -1071,7 +1084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="56" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
@@ -1085,7 +1098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1097,16 +1110,30 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="D44" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="56" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
@@ -1120,7 +1147,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -1134,7 +1161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -1148,7 +1175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -1162,7 +1189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>77</v>
       </c>
@@ -1176,7 +1203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -1187,7 +1214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -1201,7 +1228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>100</v>
       </c>
@@ -1212,7 +1239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A521" s="7">
         <v>520</v>
       </c>
@@ -1226,7 +1253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A522" s="7">
         <v>521</v>
       </c>
